--- a/Test Data/Maintenance.xlsx
+++ b/Test Data/Maintenance.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EclipseWorkSpace\MISv2\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EclipseWorkSpace\MISv2\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C385B1D-299C-474E-AFC2-C765D7A1A8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E995B5B8-895C-4E9D-B6AD-51C8D620CAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{66599CB7-464D-4AD4-B81D-0D79C9E481C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{66599CB7-464D-4AD4-B81D-0D79C9E481C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$4:$C$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$4:$C$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
   <si>
     <t>Weekly Window Restrictor Report</t>
   </si>
@@ -96,31 +96,46 @@
     <t>Maintenance</t>
   </si>
   <si>
-    <t>hh</t>
-  </si>
-  <si>
-    <t>Calls</t>
-  </si>
-  <si>
-    <t>Emails</t>
-  </si>
-  <si>
-    <t>Meeting</t>
-  </si>
-  <si>
-    <t>Meeting Minutes</t>
-  </si>
-  <si>
-    <t>Training</t>
-  </si>
-  <si>
-    <t>Other Tasks</t>
-  </si>
-  <si>
-    <t>Textarea</t>
-  </si>
-  <si>
-    <t>Number</t>
+    <t xml:space="preserve">Calls </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emails </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting Minutes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Tasks </t>
+  </si>
+  <si>
+    <t>Add Remarks for Rejected Tickets</t>
+  </si>
+  <si>
+    <t>Updating Maintenance Liability on RMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Specify Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Type 1 For Done</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Specify Duration in Mins</t>
+  </si>
+  <si>
+    <t>Specify Task</t>
+  </si>
+  <si>
+    <t>Specify In Brief</t>
+  </si>
+  <si>
+    <t>ff</t>
   </si>
 </sst>
 </file>
@@ -144,18 +159,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -170,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -179,7 +188,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C04C29E-ADE6-400D-8B28-E70E1826B554}">
-  <dimension ref="A1:AD26"/>
+  <dimension ref="A1:AD28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,13 +516,13 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
@@ -524,9 +532,6 @@
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -535,9 +540,6 @@
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -546,9 +548,6 @@
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -556,7 +555,6 @@
         <v>27</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -584,9 +582,6 @@
       <c r="AD5" s="1"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -595,9 +590,6 @@
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -606,9 +598,6 @@
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -617,9 +606,6 @@
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
@@ -628,9 +614,6 @@
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
@@ -639,9 +622,6 @@
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -650,9 +630,6 @@
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -661,9 +638,6 @@
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -672,9 +646,6 @@
       </c>
     </row>
     <row r="14" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -683,9 +654,6 @@
       </c>
     </row>
     <row r="15" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
-      </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -694,9 +662,6 @@
       </c>
     </row>
     <row r="16" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
-      </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -704,114 +669,100 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>15</v>
-      </c>
+    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>0</v>
       </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>1</v>
       </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>2</v>
       </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>21</v>
       </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>22</v>
       </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>23</v>
       </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>26</v>
+      <c r="C28" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
